--- a/html/resources/aoiConditions/train1Block17.xlsx
+++ b/html/resources/aoiConditions/train1Block17.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/25_tapapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota3.wav</t>
-  </si>
-  <si>
-    <t>pngimages/25_apple.png</t>
-  </si>
-  <si>
-    <t>pngimages/09_plane.png</t>
-  </si>
-  <si>
-    <t>pngimages/11_compass.png</t>
-  </si>
-  <si>
-    <t>pngimages/15_barrel.png</t>
+    <t>trainingaudio/12_pokika3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.wav</t>
+  </si>
+  <si>
+    <t>pngimages/12_pie.png</t>
+  </si>
+  <si>
+    <t>pngimages/20_pizza.png</t>
+  </si>
+  <si>
+    <t>pngimages/16_icecream.png</t>
+  </si>
+  <si>
+    <t>pngimages/02_pallet.png</t>
   </si>
 </sst>
 </file>
